--- a/термины.xlsx
+++ b/термины.xlsx
@@ -14,12 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>magical haywire chance</t>
   </si>
   <si>
     <t>шанс магического резонанса</t>
+  </si>
+  <si>
+    <t>способности</t>
+  </si>
+  <si>
+    <t>навыки</t>
+  </si>
+  <si>
+    <t>на панели внизу</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>в начале игры выбор</t>
+  </si>
+  <si>
+    <t>тип урона</t>
+  </si>
+  <si>
+    <t>вид заклинания</t>
+  </si>
+  <si>
+    <t>"C" Персонаж</t>
+  </si>
+  <si>
+    <t>"I" Инвентарь</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>Панель персонажа</t>
   </si>
 </sst>
 </file>
@@ -361,24 +394,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/термины.xlsx
+++ b/термины.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>magical haywire chance</t>
   </si>
@@ -28,15 +28,9 @@
     <t>навыки</t>
   </si>
   <si>
-    <t>на панели внизу</t>
-  </si>
-  <si>
     <t>skills</t>
   </si>
   <si>
-    <t>в начале игры выбор</t>
-  </si>
-  <si>
     <t>тип урона</t>
   </si>
   <si>
@@ -53,6 +47,30 @@
   </si>
   <si>
     <t>Панель персонажа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в начале игры выбираются </t>
+  </si>
+  <si>
+    <t>при развитиии способности, появляются разные навыки, размещаются на панели в низу</t>
+  </si>
+  <si>
+    <t>encrust</t>
+  </si>
+  <si>
+    <t>отделка</t>
+  </si>
+  <si>
+    <t>craft</t>
+  </si>
+  <si>
+    <t>ремесло</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>части</t>
   </si>
 </sst>
 </file>
@@ -394,17 +412,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="3" max="3" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -417,47 +435,71 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/термины.xlsx
+++ b/термины.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>magical haywire chance</t>
   </si>
@@ -71,6 +71,39 @@
   </si>
   <si>
     <t>части</t>
+  </si>
+  <si>
+    <t>Bolt Council</t>
+  </si>
+  <si>
+    <t>совет Болтистов</t>
+  </si>
+  <si>
+    <t>Golemancy</t>
+  </si>
+  <si>
+    <t>Fleshsmithing</t>
+  </si>
+  <si>
+    <t>Mathemagic</t>
+  </si>
+  <si>
+    <t>Арифмантика Арифмантики</t>
+  </si>
+  <si>
+    <t>Necronomiconomics</t>
+  </si>
+  <si>
+    <t>Некрономикономика</t>
+  </si>
+  <si>
+    <t>Psionics</t>
+  </si>
+  <si>
+    <t>Promethean Magic</t>
+  </si>
+  <si>
+    <t>Прометеева Магия</t>
   </si>
 </sst>
 </file>
@@ -412,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +535,53 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/термины.xlsx
+++ b/термины.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>magical haywire chance</t>
   </si>
@@ -104,6 +104,33 @@
   </si>
   <si>
     <t>Прометеева Магия</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>оружие</t>
+  </si>
+  <si>
+    <t>polearms</t>
+  </si>
+  <si>
+    <t>копье, древковое оружие</t>
+  </si>
+  <si>
+    <t>ед.</t>
+  </si>
+  <si>
+    <t>Големантия</t>
+  </si>
+  <si>
+    <t>Мастер Плоти</t>
+  </si>
+  <si>
+    <t>Матемагия</t>
+  </si>
+  <si>
+    <t>посох</t>
   </si>
 </sst>
 </file>
@@ -445,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,119 +493,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>

--- a/термины.xlsx
+++ b/термины.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>magical haywire chance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
   <si>
     <t>шанс магического резонанса</t>
   </si>
@@ -37,18 +36,9 @@
     <t>вид заклинания</t>
   </si>
   <si>
-    <t>"C" Персонаж</t>
-  </si>
-  <si>
-    <t>"I" Инвентарь</t>
-  </si>
-  <si>
     <t>ability</t>
   </si>
   <si>
-    <t>Панель персонажа</t>
-  </si>
-  <si>
     <t xml:space="preserve">в начале игры выбираются </t>
   </si>
   <si>
@@ -131,6 +121,261 @@
   </si>
   <si>
     <t>посох</t>
+  </si>
+  <si>
+    <t>Ley Lines</t>
+  </si>
+  <si>
+    <t>Мировые Линии</t>
+  </si>
+  <si>
+    <t>crushing</t>
+  </si>
+  <si>
+    <t>slashing</t>
+  </si>
+  <si>
+    <t>blasting</t>
+  </si>
+  <si>
+    <t>piercing</t>
+  </si>
+  <si>
+    <t>conflagratory</t>
+  </si>
+  <si>
+    <t>hyperborean</t>
+  </si>
+  <si>
+    <t>voltaic</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>righteous</t>
+  </si>
+  <si>
+    <t>necromantic</t>
+  </si>
+  <si>
+    <t>acidic</t>
+  </si>
+  <si>
+    <t>putrefying</t>
+  </si>
+  <si>
+    <t>transmutative</t>
+  </si>
+  <si>
+    <t>aethereal</t>
+  </si>
+  <si>
+    <t>asphyxiative</t>
+  </si>
+  <si>
+    <t>existential</t>
+  </si>
+  <si>
+    <t>Дробящий</t>
+  </si>
+  <si>
+    <t>Режущий</t>
+  </si>
+  <si>
+    <t>Взрывчатый</t>
+  </si>
+  <si>
+    <t>Проникающий</t>
+  </si>
+  <si>
+    <t>Воспламеняющий</t>
+  </si>
+  <si>
+    <t>Гиперборейский</t>
+  </si>
+  <si>
+    <t>Вольтамперный</t>
+  </si>
+  <si>
+    <t>Токсичный</t>
+  </si>
+  <si>
+    <t>Праведный</t>
+  </si>
+  <si>
+    <t>Некромантский</t>
+  </si>
+  <si>
+    <t>Кислотный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разлагающий </t>
+  </si>
+  <si>
+    <t>Трансмутационный</t>
+  </si>
+  <si>
+    <t>Эфирный</t>
+  </si>
+  <si>
+    <t>Удушающий</t>
+  </si>
+  <si>
+    <t>Экзистенциальный</t>
+  </si>
+  <si>
+    <t>Stubbornness</t>
+  </si>
+  <si>
+    <t>Burliness</t>
+  </si>
+  <si>
+    <t>Sagacity</t>
+  </si>
+  <si>
+    <t>Nimbleness</t>
+  </si>
+  <si>
+    <t>Caddishness</t>
+  </si>
+  <si>
+    <t>Savvy</t>
+  </si>
+  <si>
+    <t>Могучесть</t>
+  </si>
+  <si>
+    <t>Мозговитость</t>
+  </si>
+  <si>
+    <t>Проворность</t>
+  </si>
+  <si>
+    <t>Наглость</t>
+  </si>
+  <si>
+    <t>Непреклонность</t>
+  </si>
+  <si>
+    <t>Сообразительность</t>
+  </si>
+  <si>
+    <t>Mana Regeneration Bonus</t>
+  </si>
+  <si>
+    <t>Melee Power</t>
+  </si>
+  <si>
+    <t>Critical Chance</t>
+  </si>
+  <si>
+    <t>Counter Chance</t>
+  </si>
+  <si>
+    <t>Magic Power</t>
+  </si>
+  <si>
+    <t>Haywire Chance</t>
+  </si>
+  <si>
+    <t>Magic Resistance</t>
+  </si>
+  <si>
+    <t>Armour Absorption</t>
+  </si>
+  <si>
+    <t>Block Chance</t>
+  </si>
+  <si>
+    <t>Dodge Chance</t>
+  </si>
+  <si>
+    <t>Enemy Dodge Reduction</t>
+  </si>
+  <si>
+    <t>Sneakiness</t>
+  </si>
+  <si>
+    <t>Visual Sight Radius</t>
+  </si>
+  <si>
+    <t>Trap Sight Radius</t>
+  </si>
+  <si>
+    <t>Trap Affinity</t>
+  </si>
+  <si>
+    <t>Wandcrafting Level</t>
+  </si>
+  <si>
+    <t>Smithing Level</t>
+  </si>
+  <si>
+    <t>Alchemy Level</t>
+  </si>
+  <si>
+    <t>Tinkerer Level</t>
+  </si>
+  <si>
+    <t>Life Points</t>
+  </si>
+  <si>
+    <t>Mana Points</t>
+  </si>
+  <si>
+    <t>Health Regeneration Bonus</t>
+  </si>
+  <si>
+    <t>сила ближнего боя</t>
+  </si>
+  <si>
+    <t>шанс критического удара</t>
+  </si>
+  <si>
+    <t>шанс контрудара</t>
+  </si>
+  <si>
+    <t>магическая сила</t>
+  </si>
+  <si>
+    <t>магическое сопротивление</t>
+  </si>
+  <si>
+    <t>поглощение урона</t>
+  </si>
+  <si>
+    <t>шанс блока</t>
+  </si>
+  <si>
+    <t>шанс уклонения</t>
+  </si>
+  <si>
+    <t>шанс уклонения врага</t>
+  </si>
+  <si>
+    <t>скрытность</t>
+  </si>
+  <si>
+    <t>дальность обзора</t>
+  </si>
+  <si>
+    <t>дальность обнаружения ловушек</t>
+  </si>
+  <si>
+    <t>знание ловушек</t>
+  </si>
+  <si>
+    <t>создание волшебных палочек</t>
+  </si>
+  <si>
+    <t>кузнец</t>
+  </si>
+  <si>
+    <t>алхимик</t>
+  </si>
+  <si>
+    <t>изобретатель</t>
   </si>
 </sst>
 </file>
@@ -166,8 +411,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,162 +735,528 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/термины.xlsx
+++ b/термины.xlsx
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>

--- a/термины.xlsx
+++ b/термины.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>шанс магического резонанса</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>изобретатель</t>
+  </si>
+  <si>
+    <t>Thaumite</t>
+  </si>
+  <si>
+    <t>Чудоклещ</t>
   </si>
 </sst>
 </file>
@@ -720,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +830,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -833,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
